--- a/Documents/Task/Pronith Laboratory Project Task.xlsx
+++ b/Documents/Task/Pronith Laboratory Project Task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Laboratory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\pronith-laboratory\Documents\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Task All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task All'!$A$8:$I$18</definedName>
     <definedName name="Assignment_Table">#REF!</definedName>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Laboratory Project Task</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -358,23 +358,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Task Analysis"/>
-      <sheetName val="Quotation"/>
-      <sheetName val="Task All"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,7 +626,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,28 +641,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -732,7 +715,9 @@
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>2</v>
       </c>

--- a/Documents/Task/Pronith Laboratory Project Task.xlsx
+++ b/Documents/Task/Pronith Laboratory Project Task.xlsx
@@ -1037,5 +1037,6 @@
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Task/Pronith Laboratory Project Task.xlsx
+++ b/Documents/Task/Pronith Laboratory Project Task.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>41514</v>
       </c>
       <c r="H11" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" s="23">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>41514.916666666664</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="23">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>41517.333333333336</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I13" s="23">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>41523.875</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I14" s="23">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>41523.958333333336</v>
       </c>
       <c r="H15" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="23">
         <v>0</v>
